--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H2">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J2">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N2">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P2">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q2">
-        <v>61.073325427702</v>
+        <v>49.69266844063667</v>
       </c>
       <c r="R2">
-        <v>549.6599288493179</v>
+        <v>447.23401596573</v>
       </c>
       <c r="S2">
-        <v>0.0267904355990471</v>
+        <v>0.02339838731737091</v>
       </c>
       <c r="T2">
-        <v>0.0267904355990471</v>
+        <v>0.02339838731737091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H3">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J3">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P3">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q3">
-        <v>23.803728548214</v>
+        <v>21.418587825082</v>
       </c>
       <c r="R3">
-        <v>214.233556933926</v>
+        <v>192.767290425738</v>
       </c>
       <c r="S3">
-        <v>0.0104417477224659</v>
+        <v>0.01008519826865576</v>
       </c>
       <c r="T3">
-        <v>0.0104417477224659</v>
+        <v>0.01008519826865576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H4">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J4">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N4">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P4">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q4">
-        <v>140.767640870575</v>
+        <v>221.4735742111083</v>
       </c>
       <c r="R4">
-        <v>1266.908767835175</v>
+        <v>1993.262167899975</v>
       </c>
       <c r="S4">
-        <v>0.06174915793044986</v>
+        <v>0.1042834814987772</v>
       </c>
       <c r="T4">
-        <v>0.06174915793044988</v>
+        <v>0.1042834814987772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H5">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J5">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N5">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P5">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q5">
-        <v>18.163447638226</v>
+        <v>11.75163243208033</v>
       </c>
       <c r="R5">
-        <v>163.471028744034</v>
+        <v>105.764691888723</v>
       </c>
       <c r="S5">
-        <v>0.007967581113371631</v>
+        <v>0.0055333966938337</v>
       </c>
       <c r="T5">
-        <v>0.007967581113371633</v>
+        <v>0.0055333966938337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3.708951</v>
+        <v>3.337313</v>
       </c>
       <c r="H6">
-        <v>11.126853</v>
+        <v>10.011939</v>
       </c>
       <c r="I6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="J6">
-        <v>0.1962880377928</v>
+        <v>0.1958858017947999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N6">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P6">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q6">
-        <v>203.663611580795</v>
+        <v>111.6788833107313</v>
       </c>
       <c r="R6">
-        <v>1832.972504227155</v>
+        <v>1005.109949796582</v>
       </c>
       <c r="S6">
-        <v>0.08933911542746549</v>
+        <v>0.05258533801616234</v>
       </c>
       <c r="T6">
-        <v>0.0893391154274655</v>
+        <v>0.05258533801616234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J7">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N7">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P7">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q7">
-        <v>169.3361634503482</v>
+        <v>153.1244783562478</v>
       </c>
       <c r="R7">
-        <v>1524.025471053134</v>
+        <v>1378.12030520623</v>
       </c>
       <c r="S7">
-        <v>0.07428103103500786</v>
+        <v>0.07210049218085342</v>
       </c>
       <c r="T7">
-        <v>0.07428103103500787</v>
+        <v>0.07210049218085342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J8">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P8">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q8">
         <v>65.99987866944866</v>
@@ -948,10 +948,10 @@
         <v>593.998908025038</v>
       </c>
       <c r="S8">
-        <v>0.02895151830453254</v>
+        <v>0.03107683230680339</v>
       </c>
       <c r="T8">
-        <v>0.02895151830453254</v>
+        <v>0.03107683230680339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J9">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N9">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P9">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q9">
-        <v>390.3021830896971</v>
+        <v>682.4553115170805</v>
       </c>
       <c r="R9">
-        <v>3512.719647807275</v>
+        <v>6142.097803653725</v>
       </c>
       <c r="S9">
-        <v>0.1712100238034387</v>
+        <v>0.3213422463869015</v>
       </c>
       <c r="T9">
-        <v>0.1712100238034388</v>
+        <v>0.3213422463869016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J10">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N10">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P10">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q10">
-        <v>50.36124226982689</v>
+        <v>36.21183249891923</v>
       </c>
       <c r="R10">
-        <v>453.251180428442</v>
+        <v>325.906492490273</v>
       </c>
       <c r="S10">
-        <v>0.02209147133006496</v>
+        <v>0.01705077446773989</v>
       </c>
       <c r="T10">
-        <v>0.02209147133006496</v>
+        <v>0.01705077446773989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>30.851089</v>
       </c>
       <c r="I11">
-        <v>0.5442419095121536</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="J11">
-        <v>0.5442419095121537</v>
+        <v>0.6036083824529627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.91137833333332</v>
+        <v>33.46371266666667</v>
       </c>
       <c r="N11">
-        <v>164.734135</v>
+        <v>100.391138</v>
       </c>
       <c r="O11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="P11">
-        <v>0.4551429441755953</v>
+        <v>0.2684489510436703</v>
       </c>
       <c r="Q11">
-        <v>564.6919400247793</v>
+        <v>344.1306592499202</v>
       </c>
       <c r="R11">
-        <v>5082.227460223015</v>
+        <v>3097.175933249282</v>
       </c>
       <c r="S11">
-        <v>0.2477078650391095</v>
+        <v>0.1620380371106644</v>
       </c>
       <c r="T11">
-        <v>0.2477078650391095</v>
+        <v>0.1620380371106644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H12">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J12">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.46646866666666</v>
+        <v>14.89002333333333</v>
       </c>
       <c r="N12">
-        <v>49.39940599999999</v>
+        <v>44.67007</v>
       </c>
       <c r="O12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330596</v>
       </c>
       <c r="P12">
-        <v>0.1364853197387752</v>
+        <v>0.1194491234330597</v>
       </c>
       <c r="Q12">
-        <v>80.73186295598509</v>
+        <v>49.95693657475666</v>
       </c>
       <c r="R12">
-        <v>726.5867666038658</v>
+        <v>449.61242917281</v>
       </c>
       <c r="S12">
-        <v>0.03541385310472026</v>
+        <v>0.02352282112927549</v>
       </c>
       <c r="T12">
-        <v>0.03541385310472026</v>
+        <v>0.02352282112927549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H13">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J13">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.253742</v>
       </c>
       <c r="O13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166413</v>
       </c>
       <c r="P13">
-        <v>0.05319604719615224</v>
+        <v>0.05148509068166414</v>
       </c>
       <c r="Q13">
-        <v>31.46577229155133</v>
+        <v>21.532492962754</v>
       </c>
       <c r="R13">
-        <v>283.191950623962</v>
+        <v>193.792436664786</v>
       </c>
       <c r="S13">
-        <v>0.0138027811691538</v>
+        <v>0.01013883186516652</v>
       </c>
       <c r="T13">
-        <v>0.0138027811691538</v>
+        <v>0.01013883186516652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H14">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J14">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.95349166666666</v>
+        <v>66.36284166666667</v>
       </c>
       <c r="N14">
-        <v>113.860475</v>
+        <v>199.088525</v>
       </c>
       <c r="O14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884161</v>
       </c>
       <c r="P14">
-        <v>0.3145844169863869</v>
+        <v>0.5323687604884162</v>
       </c>
       <c r="Q14">
-        <v>186.078518106136</v>
+        <v>222.6513819250083</v>
       </c>
       <c r="R14">
-        <v>1674.706662955225</v>
+        <v>2003.862437325075</v>
       </c>
       <c r="S14">
-        <v>0.08162523525249825</v>
+        <v>0.1048380663488168</v>
       </c>
       <c r="T14">
-        <v>0.08162523525249826</v>
+        <v>0.1048380663488168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.902803666666666</v>
+        <v>3.355061</v>
       </c>
       <c r="H15">
-        <v>14.708411</v>
+        <v>10.065183</v>
       </c>
       <c r="I15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="J15">
-        <v>0.2594700526950464</v>
+        <v>0.196927532435664</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.897192666666666</v>
+        <v>3.521285666666667</v>
       </c>
       <c r="N15">
-        <v>14.691578</v>
+        <v>10.563857</v>
       </c>
       <c r="O15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="P15">
-        <v>0.04059127190309042</v>
+        <v>0.02824807435318976</v>
       </c>
       <c r="Q15">
-        <v>24.00997416250644</v>
+        <v>11.81412821009233</v>
       </c>
       <c r="R15">
-        <v>216.089767462558</v>
+        <v>106.327153890831</v>
       </c>
       <c r="S15">
-        <v>0.01053221945965383</v>
+        <v>0.005562823578432826</v>
       </c>
       <c r="T15">
-        <v>0.01053221945965383</v>
+        <v>0.005562823578432826</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.355061</v>
+      </c>
+      <c r="H16">
+        <v>10.065183</v>
+      </c>
+      <c r="I16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="J16">
+        <v>0.196927532435664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>33.46371266666667</v>
+      </c>
+      <c r="N16">
+        <v>100.391138</v>
+      </c>
+      <c r="O16">
+        <v>0.2684489510436703</v>
+      </c>
+      <c r="P16">
+        <v>0.2684489510436703</v>
+      </c>
+      <c r="Q16">
+        <v>112.2727972831393</v>
+      </c>
+      <c r="R16">
+        <v>1010.455175548254</v>
+      </c>
+      <c r="S16">
+        <v>0.05286498951397236</v>
+      </c>
+      <c r="T16">
+        <v>0.05286498951397236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.18289</v>
+      </c>
+      <c r="I17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J17">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.89002333333333</v>
+      </c>
+      <c r="N17">
+        <v>44.67007</v>
+      </c>
+      <c r="O17">
+        <v>0.1194491234330596</v>
+      </c>
+      <c r="P17">
+        <v>0.1194491234330597</v>
+      </c>
+      <c r="Q17">
+        <v>0.9077454558111111</v>
+      </c>
+      <c r="R17">
+        <v>8.169709102300001</v>
+      </c>
+      <c r="S17">
+        <v>0.0004274228055598388</v>
+      </c>
+      <c r="T17">
+        <v>0.0004274228055598388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.18289</v>
+      </c>
+      <c r="I18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J18">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.417914</v>
+      </c>
+      <c r="N18">
+        <v>19.253742</v>
+      </c>
+      <c r="O18">
+        <v>0.05148509068166413</v>
+      </c>
+      <c r="P18">
+        <v>0.05148509068166414</v>
+      </c>
+      <c r="Q18">
+        <v>0.3912574304866667</v>
+      </c>
+      <c r="R18">
+        <v>3.52131687438</v>
+      </c>
+      <c r="S18">
+        <v>0.0001842282410384694</v>
+      </c>
+      <c r="T18">
+        <v>0.0001842282410384694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.902803666666666</v>
-      </c>
-      <c r="H16">
-        <v>14.708411</v>
-      </c>
-      <c r="I16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="J16">
-        <v>0.2594700526950464</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>54.91137833333332</v>
-      </c>
-      <c r="N16">
-        <v>164.734135</v>
-      </c>
-      <c r="O16">
-        <v>0.4551429441755953</v>
-      </c>
-      <c r="P16">
-        <v>0.4551429441755953</v>
-      </c>
-      <c r="Q16">
-        <v>269.2197070343872</v>
-      </c>
-      <c r="R16">
-        <v>2422.977363309485</v>
-      </c>
-      <c r="S16">
-        <v>0.1180959637090202</v>
-      </c>
-      <c r="T16">
-        <v>0.1180959637090202</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J19">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>66.36284166666667</v>
+      </c>
+      <c r="N19">
+        <v>199.088525</v>
+      </c>
+      <c r="O19">
+        <v>0.5323687604884161</v>
+      </c>
+      <c r="P19">
+        <v>0.5323687604884162</v>
+      </c>
+      <c r="Q19">
+        <v>4.045700037472223</v>
+      </c>
+      <c r="R19">
+        <v>36.41130033725</v>
+      </c>
+      <c r="S19">
+        <v>0.00190496625392058</v>
+      </c>
+      <c r="T19">
+        <v>0.00190496625392058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.18289</v>
+      </c>
+      <c r="I20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J20">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.521285666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.563857</v>
+      </c>
+      <c r="O20">
+        <v>0.02824807435318976</v>
+      </c>
+      <c r="P20">
+        <v>0.02824807435318976</v>
+      </c>
+      <c r="Q20">
+        <v>0.2146693118588889</v>
+      </c>
+      <c r="R20">
+        <v>1.93202380673</v>
+      </c>
+      <c r="S20">
+        <v>0.000101079613183345</v>
+      </c>
+      <c r="T20">
+        <v>0.0001010796131833449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.18289</v>
+      </c>
+      <c r="I21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="J21">
+        <v>0.003578283316573439</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>33.46371266666667</v>
+      </c>
+      <c r="N21">
+        <v>100.391138</v>
+      </c>
+      <c r="O21">
+        <v>0.2684489510436703</v>
+      </c>
+      <c r="P21">
+        <v>0.2684489510436703</v>
+      </c>
+      <c r="Q21">
+        <v>2.040059469868889</v>
+      </c>
+      <c r="R21">
+        <v>18.36053522882</v>
+      </c>
+      <c r="S21">
+        <v>0.0009605864028712053</v>
+      </c>
+      <c r="T21">
+        <v>0.0009605864028712052</v>
       </c>
     </row>
   </sheetData>
